--- a/hive commands.xlsx
+++ b/hive commands.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shashankjain/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shashankjain/Desktop/Imp_notes/Summary_notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B032D94A-ECCC-C542-ACB6-D96D608D3B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8138C22-3C1F-C94E-9BD1-8EF101AC7B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{C3C9EFE9-7086-8042-B06A-56F392C46EE9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{C3C9EFE9-7086-8042-B06A-56F392C46EE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>To know basic info about the table</t>
   </si>
@@ -156,13 +156,19 @@
   </si>
   <si>
     <t xml:space="preserve">In case Serde library not installed in your system then. </t>
+  </si>
+  <si>
+    <t>CREATING PARTITION TABLE</t>
+  </si>
+  <si>
+    <t>Inserting DATA in partitioned table (Multilevel Dynamic partionioning)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -174,6 +180,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -199,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -209,6 +223,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1542,6 +1562,1150 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5468938</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>1357313</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F968A505-AF61-61BE-7F10-5DCC6FDF619B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="79375" y="25654000"/>
+          <a:ext cx="5389563" cy="1357313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CREATE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> TABLE </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sales_data_static_part </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> ( ORDERNUMBER int, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> QUANTITYORDERED int, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> SALES float, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> YEAR_ID int </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> ) &gt; partitioned by (COUNTRY string); </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5286375</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>1460500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27CE058E-0E63-89A4-F3B4-462B1D9C60B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="127000" y="27328813"/>
+          <a:ext cx="5159375" cy="1412875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INSERT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> OVERWRITE TABLE </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> sales_data_static_part PARTITION(country = 'USA') </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SELECT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ordernumber,quantityordered,sales,year_id </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FROM sales_order_data_orc </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>WHERE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> country = 'USA';</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>87312</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4960937</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69999EF2-05BC-7AD0-190E-9E3120979255}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="27328813"/>
+          <a:ext cx="4873625" cy="992187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>Inserting DATA in partitioned table (Static partionioning)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0"/>
+            <a:t>=&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+            <a:t> column which is used for partition table will not be in select list</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+            <a:t>=&gt; Where clause must be mentioned </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+            <a:t>=&gt;  Only one criteria should be mentioned</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5373688</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>912812</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FFB85AF-809E-A5DB-F201-776A58CDA047}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="29360813"/>
+          <a:ext cx="5183188" cy="849312"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INSERT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> OVERWRITE TABLE  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sales_data_dynamic_part PARTITION(country) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SELECT ordernumber, quantityordered, sales, year_id, country</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FRO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>M </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sales_order_data_orc; </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>182562</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4897437</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>1754186</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F16FC691-F212-B8D3-F401-2D510B2A96A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5667375" y="29360812"/>
+          <a:ext cx="4714875" cy="1690687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>Inserting DATA in partitioned table (Dynamic partionioning)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0"/>
+            <a:t>=&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>hive.exec.dynamic.partition.mode=nonstrict;    (This</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> must be set for dynamic     </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>           partitioning)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>=&gt; make sure your inserting column should be in table sequence. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>55563</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5151438</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5F8629E-35F9-592C-149B-17A70840E289}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="55563" y="30686376"/>
+          <a:ext cx="5095875" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>CREATE TABLE sales_data_dynamic_multilevel_part</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>    &gt;    (</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>    &gt;      ordernumber int,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>    &gt;      quantityordered int,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>    &gt;      sales float</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>    &gt;         )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>    &gt;    PARTITIONED BY (country string, year_id int);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>277812</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>87312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4921250</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>1428750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB40CA91-7A6D-7588-AAEB-A4402B0E5FD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5762625" y="30749875"/>
+          <a:ext cx="4643438" cy="1341438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CREATING MULTILEVEL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PARTITION TABLE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>198438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5262563</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>7937</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B7BBBAF-E911-7001-619C-A3C91159932E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="111125" y="32361188"/>
+          <a:ext cx="5151438" cy="944562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>INSERT OVERWRITE TABLE sales_data_dynamic_multilevel_part PARTITION (country, year_id)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>    &gt; SELECT ordernumber, quantityordered, sales, country, year_id FROM sales_order_data_orc;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1842,10 +3006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A95B51-2708-A040-A48A-823307CDDDFD}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2029,6 +3193,23 @@
       </c>
     </row>
     <row r="56" spans="2:2" ht="98" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="2:2" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="5"/>
+    </row>
+    <row r="65" spans="1:2" ht="91" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="1:2" ht="118" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="69" spans="1:2" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/hive commands.xlsx
+++ b/hive commands.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shashankjain/Desktop/Imp_notes/Summary_notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8138C22-3C1F-C94E-9BD1-8EF101AC7B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF92412-DAE0-8742-A007-61E9C333ED33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{C3C9EFE9-7086-8042-B06A-56F392C46EE9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Practical Queries" sheetId="1" r:id="rId1"/>
+    <sheet name="Basic datatype &amp; functions &amp; O" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>To know basic info about the table</t>
   </si>
@@ -155,20 +156,267 @@
     <t xml:space="preserve">from &lt;hive_table&gt; insert overwrite table &lt;parquet_table&gt;  select * </t>
   </si>
   <si>
-    <t xml:space="preserve">In case Serde library not installed in your system then. </t>
-  </si>
-  <si>
     <t>CREATING PARTITION TABLE</t>
   </si>
   <si>
     <t>Inserting DATA in partitioned table (Multilevel Dynamic partionioning)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In case Jsoon Serde library not installed in your system then. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                      Using UDFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT DATA INTO Bucket table </t>
+  </si>
+  <si>
+    <t>INSERT OVERWRITE TABLE bucket_locations SELECT * FROM locations;</t>
+  </si>
+  <si>
+    <t>Hive functions</t>
+  </si>
+  <si>
+    <t>concat</t>
+  </si>
+  <si>
+    <t>EXP()</t>
+  </si>
+  <si>
+    <t>LN()</t>
+  </si>
+  <si>
+    <t>SQRT()</t>
+  </si>
+  <si>
+    <t>POW()</t>
+  </si>
+  <si>
+    <t>LENGTH</t>
+  </si>
+  <si>
+    <t>REVERSED</t>
+  </si>
+  <si>
+    <t>REGEXP_REPLACE()</t>
+  </si>
+  <si>
+    <t>SUM()</t>
+  </si>
+  <si>
+    <t>COUNT()</t>
+  </si>
+  <si>
+    <t>AVG()</t>
+  </si>
+  <si>
+    <t>TABLE GENERATED functions(</t>
+  </si>
+  <si>
+    <t>Operate on collection of data ex. Array,maps, struct etc.</t>
+  </si>
+  <si>
+    <t>explode</t>
+  </si>
+  <si>
+    <t>CASE staements works in Hive</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>will return number of items in array or map</t>
+  </si>
+  <si>
+    <t>DATA TYPE in Hive</t>
+  </si>
+  <si>
+    <t>Interger</t>
+  </si>
+  <si>
+    <t>TINTYINT (1 BYTE)  [-128 to 128]</t>
+  </si>
+  <si>
+    <t>SMALLINT (2 BYTE) [-32,768 to 32,767]</t>
+  </si>
+  <si>
+    <r>
+      <t>INT (4 BYTE) [-2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to 2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">15 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BIGINT (8 BYTE) [-2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>63</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to 2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>63</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 1]</t>
+    </r>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>FLOAT ( 4 Byte)</t>
+  </si>
+  <si>
+    <t>DOUBLE (8 BYTE) or DECIMAL</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Collection Type</t>
+  </si>
+  <si>
+    <t>Array &lt;string&gt;</t>
+  </si>
+  <si>
+    <t>Map &lt;string,array&lt;varchar(100)&gt;</t>
+  </si>
+  <si>
+    <t>Only one specific type of data could be in array</t>
+  </si>
+  <si>
+    <t>Kay-value pairs something like dictionary</t>
+  </si>
+  <si>
+    <t>This is a kind of customise type. Like here we have careated Student type. Which can accept string,int, or float</t>
+  </si>
+  <si>
+    <t>Uniontype {name String, Student Int, Fee Float}</t>
+  </si>
+  <si>
+    <t>Difference between partitioning &amp; bucketing</t>
+  </si>
+  <si>
+    <t>No. of buckects in a table</t>
+  </si>
+  <si>
+    <t>4 Types of join</t>
+  </si>
+  <si>
+    <t>Reduce side join</t>
+  </si>
+  <si>
+    <t>Map side join</t>
+  </si>
+  <si>
+    <t>Bucket Map join</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Users (id).                                                                                                    Locations</t>
+  </si>
+  <si>
+    <t>Sorted merge join</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -188,6 +436,41 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -213,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -230,6 +513,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -955,15 +1256,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>55564</xdr:colOff>
+      <xdr:colOff>55563</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4818064</xdr:colOff>
+      <xdr:colOff>5453062</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>1325563</xdr:rowOff>
+      <xdr:rowOff>1389063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -978,8 +1279,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="55564" y="16644938"/>
-          <a:ext cx="4762500" cy="1301750"/>
+          <a:off x="55563" y="16644938"/>
+          <a:ext cx="5397499" cy="1365250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2073,7 +2374,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
-            <a:t> column which is used for partition table will not be in select list</a:t>
+            <a:t> column which is used for partition table will not be in selected list</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2701,6 +3002,2981 @@
             <a:rPr lang="en-GB" sz="1100"/>
             <a:t>    &gt; SELECT ordernumber, quantityordered, sales, country, year_id FROM sales_order_data_orc;</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>380998</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>515936</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4667251" cy="1297919"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4749FCDD-4B66-C30D-FEDC-12AB209569C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="380998" y="34226499"/>
+          <a:ext cx="4667251" cy="1297919"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>for line in sys.stdin:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	line = line.strip("\n\r")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	country, order_num, quantity = line.split('\t')</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	quantity = int(quantity)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	quantity = quantity * 100</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	result = '\t'.join([country,order_num,str(quantity)])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	print(result)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6072187</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>2301875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BC38218-4D72-611B-A03C-F661EAC28704}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5548313" y="33774063"/>
+          <a:ext cx="6008687" cy="2238375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" u="sng"/>
+            <a:t>UDF (User Define functions)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>=&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t> each row table will be received as a string with</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t>      - \t delimiter</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t>      - \n\r will be there in the begining and end. So, strip them</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t>=&gt; Transform the field with approprite function (ex. here we multiplied by 100)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t>=&gt; again form a string with all the recieved input and our transformation and make sure again here delimiter must be \t </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t>=&gt; in the end use print function for output of string stream.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15876</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3357562</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>2746375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{553FAA7B-7CCB-5788-7846-9B49B7987C3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5500689" y="37234813"/>
+          <a:ext cx="3341686" cy="1793875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>hive&gt; SELECT COUNTRY,ORDERNUMBER,quantityordered FROM sales_order_data_orc limit 5;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>country	ordernumber	quantityordered</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>USA	10107	30</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>France	10121	34</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>France	10134	41</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>USA	10145	45</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>USA	10159	49</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5445125</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>2238376</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF99A952-7293-1021-2B45-E6DA8559D896}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="36329939"/>
+          <a:ext cx="5445125" cy="2190750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>SELECT TRANSFORM (country,ordernumber,quantityordered)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>    using 'python many_column_udf.py' as (country string, ordernumber int, m_quantity int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>    FROM sales_order_data_orc limit 5;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3452813</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>1412875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6365875</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>2492374</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="TextBox 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CDD5931-390E-206E-B7B4-D59EFF4E7BB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8937626" y="37695188"/>
+          <a:ext cx="2913062" cy="1079499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>country	ordernumber	m_quantity</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>USA	10107	3000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>France	10121	3400</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>France	10134	4100</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>USA	10145	4500</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>USA	10159	4900</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6056313</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>920749</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E4DB0F-7C97-F5B3-75FF-A31591427FE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5508626" y="36496625"/>
+          <a:ext cx="6032500" cy="706437"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>=&gt; Make sure return string to convert</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> (cast) back to original data type.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>=&gt; Here in out stream you can define customised column name. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>206374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7691437</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>2476500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="TextBox 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F0908A-D3AA-01B2-192B-1884B7BD1CBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5548313" y="39473187"/>
+          <a:ext cx="7627937" cy="2476501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" u="sng"/>
+            <a:t>CREATE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" u="sng" baseline="0"/>
+            <a:t> TABLE WITH BUCKETS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t>=&gt; Buckets helps us in join operations with scanning</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t>=&gt; Set this property to start bucketing</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t>          set hive .enforce.bucketing=true;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t>=&gt; bucketing applies on a single column only unlike multilevel partitioning</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t>=&gt; Bucking shoud be applied on those columns have high cardinality.  As bucketing use hash functions. As per these hash funcions data will in these buckets. So, data must have low cardinality.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2325688</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>1658937</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE696C3-0CE6-7947-8DE7-130B6A0373A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23813" y="39536687"/>
+          <a:ext cx="2301875" cy="1595438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>CREATE TABLE bucket_users</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>    &gt;  (</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>    &gt;    id int,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> name string, </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>    &gt;    salary</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> int, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>unit string</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>    &gt;     )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>    &gt; clustered by (id)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>    &gt; sorted by (id)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>    &gt; into 2 buckets;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2533650</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>73024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4835525</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>1668462</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D496F86B-C02F-1C41-9FE1-FA664914F677}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2533650" y="39546212"/>
+          <a:ext cx="2301875" cy="1595438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>CREATE TABLE bucket_locations</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>    &gt;  (</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>    &gt;    id int,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>    &gt;    location string</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>    &gt;     )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>    &gt; clustered by (id)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>    &gt; sorted by (id)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>    &gt; into 2 buckets;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>182563</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>388938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5349876</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>2103438</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="TextBox 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8DAEAB3-43DC-183D-18AB-65BF2EBA2091}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="182563" y="42378313"/>
+          <a:ext cx="5167313" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>=&gt; Partiotioning have less</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> cardinality or uniquessness</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>=&gt; No. of partitions will be no. of distinct values </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>=&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> SELECT * FROM WHERE state = "NY" </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>412749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6596062</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="TextBox 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B8E9E76-E3F9-5243-846D-4A06C262208B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5881688" y="42402124"/>
+          <a:ext cx="6199187" cy="1793875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>=&gt; Bucking</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> will be applied on a column where there is high cardinality or uniqueness.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>=&gt; Here buckets will be fixed as per the number specity during table creation.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>=&gt; SELECT * FROM WHERE id = 2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>=&gt; For sampling data bucketing is a better choice. Bez it does not have any logical seggragation unlike partitioning. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>=&gt; Doing pre sort is a good idea for bucketing. it will help in joins. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6191250</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>1008062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="TextBox 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74928839-B4C1-5B2A-06C3-BBBEDA8AC658}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5580063" y="45243750"/>
+          <a:ext cx="6096000" cy="936625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>=&gt; size</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> of the table/ size of the block =  2300 mb/128 mb     = 17.6  = roundof (17)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>so, 2 ** n = 17</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>2 ** 5 = 32  (in round of of log) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>So, 32 should be number of buckets for this table.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31752</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>39687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1444625</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>904875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="TextBox 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EE6EEF5-A79A-E494-9050-B33493CA7915}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5516565" y="46640750"/>
+          <a:ext cx="1412873" cy="865188"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>1)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> Reduce side join</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>2) Map side join</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1747840</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>49212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3857626</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="TextBox 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D577443C-20E9-874F-9D99-783F7A4B5E3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7232653" y="46650275"/>
+          <a:ext cx="2109786" cy="865188"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>3)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> Bucket map join</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>4) Sorted merge bucket map join</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15876</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5373688</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>1428750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="TextBox 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75DE3BDE-62A5-6941-9A4B-9A52ECA6F4D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5500689" y="47791688"/>
+          <a:ext cx="5357812" cy="1397000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>=&gt; All the join will happen at reduce side</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>=&gt; In this both of 2 tables should be in small size. So, both the dataset will be sent to a single reducer where they will be calculated.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>=&gt;To apply reduce joing set this property.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>     set hive.auto.convert.join = false;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7326313</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>1143000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="TextBox 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DCD02C6-5757-2472-C3E2-1D1CA8B4A4FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5484814" y="49514125"/>
+          <a:ext cx="7326312" cy="1158875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>=&gt; This</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> join should be applied when one table size is small. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>       So, data of small tables will be sent to all the maps data of large table. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>    This property should be true</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>=&gt; set hive.auto.convert.join = true;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>87311</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>412751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1460500</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>1055686</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rectangle 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38617797-256F-64E5-B837-5DA40EC6B334}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572124" y="51315939"/>
+          <a:ext cx="1373189" cy="642935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>B1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>1, Shashank</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>2, Amit</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104773</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>1168399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1484312</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>1793875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92913E3D-6114-E741-A8C0-B19F8FF74CCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5589586" y="52071587"/>
+          <a:ext cx="1379539" cy="625476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" u="sng"/>
+            <a:t>B2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>3, Yadav</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>4,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> Sunil</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>82549</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>2008186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1563687</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>2714623</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rectangle 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46F456F7-7972-984D-8D52-1328A05A5A54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5567362" y="52911374"/>
+          <a:ext cx="1481138" cy="706437"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" u="none"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" u="sng"/>
+            <a:t>B3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" u="none"/>
+            <a:t>5,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" u="none" baseline="0"/>
+            <a:t>  Karnti</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" u="none" baseline="0"/>
+            <a:t>6, Manohar</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0" u="none"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>92074</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>2840037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1595436</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>3611562</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rectangle 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B88A4D4-FB36-984B-9ECA-7561E7147879}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5576887" y="53743225"/>
+          <a:ext cx="1503362" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" u="sng"/>
+            <a:t>        B4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" u="none"/>
+            <a:t>8, Chandra </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3468687</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>430214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4905374</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>1801812</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rectangle 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADB87509-96CF-F44B-A13C-18B9AD52F79B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="51333402"/>
+          <a:ext cx="1436687" cy="1371598"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" u="sng"/>
+            <a:t>   B1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" u="none"/>
+            <a:t>1,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" u="none" baseline="0"/>
+            <a:t> UP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" u="none" baseline="0"/>
+            <a:t>2,Bhihar</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" u="none" baseline="0"/>
+            <a:t>3, MP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" u="none" baseline="0"/>
+            <a:t>4, AP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" u="sng" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3463924</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>2098676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4889500</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>3405187</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rectangle 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13CF44A5-DF4F-124C-8BBB-DDE5E5F9F9BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8948737" y="53001864"/>
+          <a:ext cx="1425576" cy="1306511"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" u="sng"/>
+            <a:t>B2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" u="none"/>
+            <a:t>5,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" u="none" baseline="0"/>
+            <a:t>  MH</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" u="none" baseline="0"/>
+            <a:t>6, JH</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" u="none" baseline="0"/>
+            <a:t>7, Goa</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0" u="none"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2135188</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>960437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2714625</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>1246187</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="TextBox 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BCA1A67-C8AB-7BCE-2DC8-26E096027175}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620001" y="51863625"/>
+          <a:ext cx="579437" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Map</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1516062</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>404812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1539875</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>1825625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Connector 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FED4C9A-B026-8248-862F-E59E550EA499}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7000875" y="51308000"/>
+          <a:ext cx="23813" cy="1420813"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1611313</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>1992312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1635125</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>3667125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Straight Connector 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{588650C5-350D-E84A-910F-6D6815BBD785}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7096126" y="52895500"/>
+          <a:ext cx="23812" cy="1674813"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1531937</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>1039812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2143125</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>1198562</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Right Arrow 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{388F8FDF-3246-E5D7-EED5-CBB43448BA34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7016750" y="51943000"/>
+          <a:ext cx="611188" cy="158750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1628774</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>2636836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2239962</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>2913061</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Right Arrow 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96348468-B1AA-F944-B29C-9F3D8B326E93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7113587" y="53540024"/>
+          <a:ext cx="611188" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2247900</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>2652712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2827337</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>2938462</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="TextBox 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0959348-2630-D248-8CEC-ABD986A15029}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7732713" y="53555900"/>
+          <a:ext cx="579437" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Map</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2700337</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>1116013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3468687</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>1144588</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Straight Arrow Connector 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34990BBC-6FD9-7CE5-8BBA-C6CAAEC07FB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8185150" y="52019201"/>
+          <a:ext cx="768350" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2828924</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>2751932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3463924</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>2773362</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Straight Arrow Connector 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{330EAFDB-FDF4-9D45-9A8A-1FA3E0B079CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8313737" y="53655120"/>
+          <a:ext cx="635000" cy="21430"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>412750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4992688</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>3484562</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="TextBox 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0062E7A5-7618-CB43-7698-B7FB7368274E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="214313" y="51315938"/>
+          <a:ext cx="4778375" cy="3071812"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>In this</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> join different map will be created as per the locations bucket. Then location bucket data will be sent to These Maps for join calculations</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>Note: To apply this join buckets in the both table should be multiply of each other.  like ther user is buckets are 4 and Location buckets are 2.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>These properties should be set to apply this Bucket map join :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>set hive.auto.convert.join = true;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>set hive.optimize.bucketmapjoin = true;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>39687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7612062</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>7937</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="TextBox 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B1EAC13-DCA4-6987-F89D-E2E6D6E2E1B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5556250" y="55372000"/>
+          <a:ext cx="7540625" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>&gt; Condition is both the table should be sorted in bucket key column order.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>=&gt; Then it row will be joined one by by one in order.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>properties need to be setted for this joins are:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>- set hive.enforce.sortmergebucketmapjoin = false;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>- set hive.auto.convert.sortmerge.join = true;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>- set hive.optimize.bucketmapjoin = true;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>- set hive.optimize.bucketmapjoin.sortedmerge=true;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3006,16 +6282,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A95B51-2708-A040-A48A-823307CDDDFD}">
-  <dimension ref="A1:B69"/>
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:B95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="72" customWidth="1"/>
-    <col min="2" max="2" width="65.33203125" customWidth="1"/>
+    <col min="2" max="2" width="102.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -3189,13 +6468,13 @@
     </row>
     <row r="53" spans="2:2" ht="83" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="2:2" ht="98" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="60" spans="2:2" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="2:2" ht="126" customHeight="1" x14ac:dyDescent="0.2">
@@ -3207,11 +6486,280 @@
     </row>
     <row r="69" spans="1:2" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="186" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="7"/>
+    </row>
+    <row r="74" spans="1:2" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="198" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="9"/>
+    </row>
+    <row r="78" spans="1:2" ht="171" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78" s="13"/>
+    </row>
+    <row r="80" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" s="1"/>
+    </row>
+    <row r="89" spans="1:2" ht="92" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="300" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="145" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A78:B78"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E21E8F5-CFB5-B241-96C8-5CAD7361CA87}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:E40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="45" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/hive commands.xlsx
+++ b/hive commands.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shashankjain/Desktop/Imp_notes/Summary_notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF92412-DAE0-8742-A007-61E9C333ED33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DDCF94-0571-0245-A331-8BB6A04900B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{C3C9EFE9-7086-8042-B06A-56F392C46EE9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{C3C9EFE9-7086-8042-B06A-56F392C46EE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Practical Queries" sheetId="1" r:id="rId1"/>
-    <sheet name="Basic datatype &amp; functions &amp; O" sheetId="2" r:id="rId2"/>
+    <sheet name="basic Hadoop commands" sheetId="3" r:id="rId2"/>
+    <sheet name="Basic datatype &amp; functions &amp; O" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="111">
   <si>
     <t>To know basic info about the table</t>
   </si>
@@ -160,9 +161,6 @@
   </si>
   <si>
     <t>Inserting DATA in partitioned table (Multilevel Dynamic partionioning)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In case Jsoon Serde library not installed in your system then. </t>
   </si>
   <si>
     <t xml:space="preserve">                                                                                      Using UDFS</t>
@@ -410,6 +408,57 @@
   </si>
   <si>
     <t>Sorted merge join</t>
+  </si>
+  <si>
+    <t>hadoop fs -copyToLocal &lt;hadoop_filename&gt; &lt;local_path&gt;</t>
+  </si>
+  <si>
+    <t>Copy from hadoop system to local file system</t>
+  </si>
+  <si>
+    <t>hadoop fs -put &lt;hadoop_filename&gt; &lt;local_path&gt;</t>
+  </si>
+  <si>
+    <t>hadoop fs -copyFromLocal &lt;local_filename&gt; &lt;hadoop_path&gt;</t>
+  </si>
+  <si>
+    <t>Copy from local filename to hadoop path</t>
+  </si>
+  <si>
+    <t>hadoop fs -put &lt;local_filename&gt; &lt;hadoop_path&gt;</t>
+  </si>
+  <si>
+    <t>hadoop fs -count &lt;directory path&gt;</t>
+  </si>
+  <si>
+    <t>file count in directory</t>
+  </si>
+  <si>
+    <t>hadoop fs -df</t>
+  </si>
+  <si>
+    <t>size of the disk uage &amp; availabilty</t>
+  </si>
+  <si>
+    <t>hadoop fs -usage &lt;command&gt;</t>
+  </si>
+  <si>
+    <t>help of hadoop command</t>
+  </si>
+  <si>
+    <t>hadoop fs -stat &lt;directory path&gt;</t>
+  </si>
+  <si>
+    <t>when a specific directory was created</t>
+  </si>
+  <si>
+    <t>hadoop fs fsck &lt;directory path&gt;</t>
+  </si>
+  <si>
+    <t> To check weather a directory / file is healthy or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In case Json Serde library not installed in your system then. </t>
   </si>
 </sst>
 </file>
@@ -526,10 +575,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2088,7 +2137,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> ) &gt; partitioned by (COUNTRY string); </a:t>
+            <a:t> )  partitioned by (COUNTRY string); </a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
@@ -2575,9 +2624,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4897437</xdr:colOff>
+      <xdr:colOff>6064250</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>1754186</xdr:rowOff>
+      <xdr:rowOff>1157286</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2593,7 +2642,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5667375" y="29360812"/>
-          <a:ext cx="4714875" cy="1690687"/>
+          <a:ext cx="5881688" cy="1093787"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2645,7 +2694,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
-            <a:t> </a:t>
+            <a:t> set </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-IN" sz="1100" b="0" i="0">
@@ -3450,6 +3499,35 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>=&gt; first add the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> udf file in the hive.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>    add file /tmp/many_columns.py;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100"/>
@@ -6287,8 +6365,8 @@
   </sheetPr>
   <dimension ref="A1:B95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6468,7 +6546,7 @@
     </row>
     <row r="53" spans="2:2" ht="83" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="2:2" ht="98" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6494,63 +6572,63 @@
     </row>
     <row r="74" spans="1:2" ht="219" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="198" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9"/>
     </row>
     <row r="78" spans="1:2" ht="171" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B78" s="13"/>
+      <c r="A78" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" s="14"/>
     </row>
     <row r="80" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" s="1"/>
     </row>
     <row r="89" spans="1:2" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="300" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="145" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -6563,13 +6641,107 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9A1D72-925B-7E4D-8066-6063A8F07ECD}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="56.83203125" customWidth="1"/>
+    <col min="2" max="2" width="70.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E21E8F5-CFB5-B241-96C8-5CAD7361CA87}">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
@@ -6583,180 +6755,180 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
         <v>58</v>
-      </c>
-      <c r="B18" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
         <v>62</v>
-      </c>
-      <c r="B20" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/hive commands.xlsx
+++ b/hive commands.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shashankjain/Desktop/Imp_notes/Summary_notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DDCF94-0571-0245-A331-8BB6A04900B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC06067-6206-224F-AD8F-EA57747866C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{C3C9EFE9-7086-8042-B06A-56F392C46EE9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{C3C9EFE9-7086-8042-B06A-56F392C46EE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Practical Queries" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="120">
   <si>
     <t>To know basic info about the table</t>
   </si>
@@ -459,6 +459,33 @@
   </si>
   <si>
     <t xml:space="preserve">In case Json Serde library not installed in your system then. </t>
+  </si>
+  <si>
+    <t>Best way to work with hive interface</t>
+  </si>
+  <si>
+    <t>beeline -u jdbc:hive2://</t>
+  </si>
+  <si>
+    <t>load data local inpath 'localfilepath' into talbe &lt;table_name&gt;;</t>
+  </si>
+  <si>
+    <t>!q (exiting from beeline)</t>
+  </si>
+  <si>
+    <t>beeline -u jdbc:hive2:// -e "select * from trial.names"</t>
+  </si>
+  <si>
+    <t>Running directly from linux console. Without entering into beeline shell.</t>
+  </si>
+  <si>
+    <t>Running and creating hive script by beeline</t>
+  </si>
+  <si>
+    <t>source &lt;hive script&gt; (might not work)</t>
+  </si>
+  <si>
+    <t>execute hive script inside beeline shell</t>
   </si>
 </sst>
 </file>
@@ -545,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -581,6 +608,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,7 +634,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2762251" cy="1476375"/>
@@ -727,13 +757,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>7937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>7937</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -831,13 +861,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>71439</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>39687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5461001</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1960562</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -969,13 +999,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4730750</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1809750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1061,13 +1091,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>7937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5238750</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>1746250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1179,13 +1209,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>7937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5476875</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1306,13 +1336,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>55563</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5453062</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>1389063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1416,13 +1446,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>55564</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>55562</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5453064</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>3008312</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1580,13 +1610,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4960937</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>2968625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1745,13 +1775,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>230188</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>261938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5183188</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>984250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1828,7 +1858,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>55563</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>55562</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5421312" cy="1125693"/>
@@ -1916,13 +1946,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>79375</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5468938</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>1357313</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2149,13 +2179,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5286375</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>1460500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2348,13 +2378,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>87312</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4960937</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2464,13 +2494,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5373688</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>912812</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2619,13 +2649,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>182562</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>63499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>6064250</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>1157286</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2767,13 +2797,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>55563</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5151438</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2876,13 +2906,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>277812</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>87312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4921250</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>1428750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2984,13 +3014,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>198438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5262563</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>7937</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3060,7 +3090,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>380998</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>515936</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4667251" cy="1297919"/>
@@ -3187,13 +3217,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>6072187</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>2301875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3328,13 +3358,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>15876</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3357562</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>2746375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3443,13 +3473,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5445125</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>2238376</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3567,13 +3597,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3452813</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>1412875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>6365875</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>2492374</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3670,13 +3700,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>214312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>6056313</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>920749</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3754,13 +3784,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>206374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>7691437</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>2476500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3900,13 +3930,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>63499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2325688</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>1658937</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4028,13 +4058,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2533650</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>73024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4835525</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>1668462</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4143,13 +4173,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>182563</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>388938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5349876</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>2103438</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4248,13 +4278,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>396875</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>412749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>6596062</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>31749</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4370,13 +4400,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>6191250</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>1008062</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4468,13 +4498,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>31752</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>39687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1444625</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>904875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4552,13 +4582,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1747840</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>49212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3857626</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>914400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4636,13 +4666,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>15876</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5373688</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>1428750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4734,13 +4764,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>7326313</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>1143000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4829,13 +4859,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>87311</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>412751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1460500</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>1055686</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4910,13 +4940,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104773</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>1168399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1484312</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>1793875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4996,13 +5026,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>82549</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>2008186</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1563687</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>2714623</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5082,13 +5112,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>92074</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>2840037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1595436</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>3611562</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5156,13 +5186,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3468687</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>430214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4905374</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>1801812</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5263,13 +5293,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3463924</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>2098676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4889500</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>3405187</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5352,13 +5382,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2135188</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>960437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2714625</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>1246187</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5427,13 +5457,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1516062</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>404812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1539875</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>1825625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5477,13 +5507,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1611313</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>1992312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1635125</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>3667125</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5527,13 +5557,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1531937</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>1039812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2143125</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>1198562</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5587,13 +5617,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1628774</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>2636836</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2239962</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>2913061</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5647,13 +5677,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2247900</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>2652712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2827337</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>2938462</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5722,13 +5752,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2700337</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>1116013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3468687</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>1144588</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5777,13 +5807,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2828924</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>2751932</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3463924</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>2773362</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5832,13 +5862,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>412750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4992688</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>3484562</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5942,13 +5972,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>71437</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>39687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>7612062</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>7937</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6058,6 +6088,178 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>39688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5468937</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1889125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="TextBox 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DCDA9C8-0161-5AC6-054E-5AECC28A9D02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5548313" y="865188"/>
+          <a:ext cx="5405437" cy="1849437"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>=&gt; crete</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> a file (hive_script.hql) : for convention give it hql extention </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>=&gt; write hive commands in the :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>	show databases;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>	show tables;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>	select * from names;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>=&gt; use this beeline to execute this hive script:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1" baseline="0"/>
+            <a:t>beeline -u jdbc:hive2:// -f /data/hive_script.hql</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>                                                                        local file path</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2166938</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1484312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3659188</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1492250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A6039C-33E5-B4A7-F4F8-031149268CA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7651751" y="2309812"/>
+          <a:ext cx="1492250" cy="7938"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6363,10 +6565,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:B95"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6384,256 +6586,298 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="113" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="113" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="115" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="25" spans="1:2" ht="115" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="22" spans="1:2" ht="155" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="28" spans="1:2" ht="155" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="139" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="4" t="s">
+    <row r="32" spans="1:2" ht="139" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>25</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>26</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B36" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="4" t="s">
+    <row r="45" spans="1:2" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="113" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="113" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="238" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="1"/>
-    </row>
-    <row r="53" spans="2:2" ht="83" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="4" t="s">
+    <row r="57" spans="1:2" ht="238" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="1"/>
+    </row>
+    <row r="59" spans="1:2" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="98" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="2:2" ht="112" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="2" t="s">
+    <row r="62" spans="1:2" ht="98" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="1:2" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="5"/>
-    </row>
-    <row r="65" spans="1:2" ht="91" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="1:2" ht="118" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="69" spans="1:2" ht="73" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="6" t="s">
+    <row r="68" spans="1:2" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="5"/>
+    </row>
+    <row r="71" spans="1:2" ht="91" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:2" ht="118" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="75" spans="1:2" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="186" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="7"/>
-    </row>
-    <row r="74" spans="1:2" ht="219" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="8" t="s">
+    <row r="78" spans="1:2" ht="186" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="7"/>
+    </row>
+    <row r="80" spans="1:2" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="198" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="9"/>
-    </row>
-    <row r="78" spans="1:2" ht="171" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="13" t="s">
+    <row r="83" spans="1:2" ht="198" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="9"/>
+    </row>
+    <row r="84" spans="1:2" ht="171" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B78" s="14"/>
-    </row>
-    <row r="80" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
+      <c r="B84" s="14"/>
+    </row>
+    <row r="86" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
+    <row r="88" spans="1:2" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
+    <row r="91" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
+    <row r="93" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B87" s="1"/>
-    </row>
-    <row r="89" spans="1:2" ht="92" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
+      <c r="B93" s="1"/>
+    </row>
+    <row r="95" spans="1:2" ht="92" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="300" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="7" t="s">
+    <row r="97" spans="1:2" ht="300" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="145" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
+    <row r="101" spans="1:2" ht="145" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
         <v>93</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A84:B84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
